--- a/business-startup-costs.xlsx
+++ b/business-startup-costs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewis\Documents\GitHub\Studio-Prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="216">
   <si>
     <t>[Business Name]</t>
   </si>
@@ -775,6 +775,57 @@
   </si>
   <si>
     <t>John</t>
+  </si>
+  <si>
+    <t>Kick Starter</t>
+  </si>
+  <si>
+    <t>Total Fixed Costs (£)</t>
+  </si>
+  <si>
+    <t>(£)</t>
+  </si>
+  <si>
+    <t>Employee Wage</t>
+  </si>
+  <si>
+    <t>← Wage for the two project leaders (Lewis &amp; John)</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>← Initial advertising push.</t>
+  </si>
+  <si>
+    <t>← Professional indemnity insurance</t>
+  </si>
+  <si>
+    <t>← Public liability insurance, Employers’ liability insurance, Equipment Coverage</t>
+  </si>
+  <si>
+    <t>←Social media creation and updates</t>
+  </si>
+  <si>
+    <t>← Water and telephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan Interest </t>
+  </si>
+  <si>
+    <t>← Interest on loans</t>
+  </si>
+  <si>
+    <t>← Desks, chairs, counters and storage racks</t>
+  </si>
+  <si>
+    <t>← Monthly wage for the three employees</t>
+  </si>
+  <si>
+    <t>← Computers, monitors, printers, software licenses.</t>
+  </si>
+  <si>
+    <t>← Register LTD Company</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1214,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -1240,18 +1291,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1261,22 +1306,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1288,9 +1324,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1425,7 +1458,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1980,10 +2012,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1997,11 +2029,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="D1" s="110" t="s">
+      <c r="B1" s="102"/>
+      <c r="D1" s="103" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="31"/>
@@ -2010,1421 +2042,781 @@
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
     </row>
-    <row r="2" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="33"/>
+      <c r="E2"/>
       <c r="F2" s="31"/>
-      <c r="G2" s="88"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="71"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>192</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3" s="37"/>
-      <c r="G3" s="98"/>
+      <c r="G3" s="92"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="38" t="s">
-        <v>9</v>
-      </c>
+      <c r="D4"/>
+      <c r="E4"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="89"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
     </row>
-    <row r="5" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="101">
-        <v>5000</v>
-      </c>
-      <c r="D5" s="101">
-        <v>5000</v>
-      </c>
-      <c r="E5" s="100">
-        <f>IF(D5="","",D5-C5)</f>
-        <v>0</v>
-      </c>
+      <c r="C5" s="95">
+        <v>10000</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
       <c r="F5" s="31"/>
-      <c r="G5" s="89"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="101">
-        <v>5000</v>
-      </c>
-      <c r="D6" s="101">
-        <v>5000</v>
-      </c>
-      <c r="E6" s="100">
-        <f>IF(D6="","",D6-C6)</f>
-        <v>0</v>
-      </c>
+      <c r="C6" s="95">
+        <v>10000</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
       <c r="F6" s="31"/>
-      <c r="G6" s="89"/>
+      <c r="G6" s="83"/>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="100" t="str">
-        <f>IF(D7="","",D7-C7)</f>
-        <v/>
-      </c>
+      <c r="C7" s="96"/>
+      <c r="D7"/>
+      <c r="E7"/>
       <c r="F7" s="31"/>
       <c r="G7"/>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="40">
         <f>SUM(C4:C7)</f>
-        <v>10000</v>
-      </c>
-      <c r="D8" s="41">
-        <f>SUM(D4:D7)</f>
-        <v>10000</v>
-      </c>
-      <c r="E8" s="41">
-        <f>SUM(E5:E7)</f>
-        <v>0</v>
-      </c>
+        <v>20000</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
       <c r="F8" s="31"/>
-      <c r="G8" s="89"/>
+      <c r="G8" s="83"/>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
     </row>
-    <row r="9" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
+    <row r="9" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="67"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="42"/>
+      <c r="D9"/>
+      <c r="E9"/>
       <c r="F9" s="31"/>
-      <c r="G9" s="89"/>
+      <c r="G9" s="83"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
     </row>
-    <row r="10" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="42"/>
+    <row r="10" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="95">
+        <v>15000</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="89"/>
+      <c r="G10" s="83"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
     </row>
-    <row r="11" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
-      <c r="B11" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="100" t="str">
-        <f>IF(D11="","",D11-C11)</f>
-        <v/>
-      </c>
+      <c r="B11" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="95"/>
+      <c r="D11"/>
+      <c r="E11"/>
       <c r="F11" s="31"/>
-      <c r="G11" s="89"/>
+      <c r="G11" s="83"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
-      <c r="B12" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="100" t="str">
-        <f>IF(D12="","",D12-C12)</f>
-        <v/>
-      </c>
+      <c r="B12" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="40">
+        <f>SUM(C9:C11)</f>
+        <v>15000</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
       <c r="F12" s="31"/>
-      <c r="G12" s="89"/>
+      <c r="G12" s="83"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="41">
-        <f>SUM(C10:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="41">
-        <f>SUM(D10:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="41">
-        <f>SUM(E10:E12)</f>
-        <v>0</v>
-      </c>
+    <row r="13" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="67"/>
+      <c r="C13" s="35"/>
+      <c r="D13"/>
+      <c r="E13"/>
       <c r="F13" s="31"/>
-      <c r="G13" s="89"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
     </row>
-    <row r="14" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="42"/>
+    <row r="14" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="95">
+        <v>20000</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="89"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
-      <c r="B15" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="101">
-        <v>20000</v>
-      </c>
-      <c r="D15" s="101">
-        <v>20000</v>
-      </c>
-      <c r="E15" s="100">
-        <f>IF(D15="","",D15-C15)</f>
-        <v>0</v>
-      </c>
+      <c r="B15" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="95">
+        <v>50000</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="89"/>
+      <c r="G15" s="83"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
     </row>
-    <row r="16" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
-      <c r="B16" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="100" t="str">
-        <f>IF(D16="","",D16-C16)</f>
-        <v/>
-      </c>
+      <c r="B16" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="40">
+        <f>SUM(C13:C15)</f>
+        <v>70000</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
       <c r="F16" s="31"/>
-      <c r="G16" s="89"/>
+      <c r="G16" s="83"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="41">
-        <f>SUM(C14:C16)</f>
-        <v>20000</v>
-      </c>
-      <c r="D17" s="41">
-        <f>SUM(D14:D16)</f>
-        <v>20000</v>
-      </c>
-      <c r="E17" s="41">
-        <f>SUM(E14:E16)</f>
-        <v>0</v>
-      </c>
+    <row r="17" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17"/>
+      <c r="E17"/>
       <c r="F17" s="31"/>
-      <c r="G17" s="89"/>
+      <c r="G17" s="83"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
     </row>
-    <row r="18" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
+    <row r="18" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="68"/>
+      <c r="C18" s="44">
+        <f>C8+C12+C16</f>
+        <v>105000</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="89"/>
+      <c r="G18" s="83"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="47">
-        <f>C8+C13+C17</f>
-        <v>30000</v>
-      </c>
-      <c r="D19" s="47">
-        <f>D8+D13+D17</f>
-        <v>30000</v>
-      </c>
-      <c r="E19" s="48">
-        <f>E8+E13+E17</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="89"/>
+      <c r="A19" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
     </row>
-    <row r="20" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="72" t="s">
+    <row r="20" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="34"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="95">
+        <v>500</v>
+      </c>
+      <c r="D21" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="31"/>
       <c r="F21" s="31"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
-      <c r="B22" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="101">
+      <c r="B22" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="95">
+        <v>3000</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="95">
         <v>1000</v>
       </c>
-      <c r="D22" s="101">
+      <c r="D23" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="35"/>
+      <c r="B24" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="95">
+        <v>12</v>
+      </c>
+      <c r="D24" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="95">
+        <v>12000</v>
+      </c>
+      <c r="D25" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
+      <c r="B26" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="95">
+        <v>100</v>
+      </c>
+      <c r="D26" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="35"/>
+      <c r="B27" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="95">
+        <v>1200</v>
+      </c>
+      <c r="D27" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="35"/>
+      <c r="B28" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="95">
+        <v>53</v>
+      </c>
+      <c r="D28" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="35"/>
+      <c r="B29" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="95">
+        <v>2500</v>
+      </c>
+      <c r="D29" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="35"/>
+      <c r="B30" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="95">
+        <v>200</v>
+      </c>
+      <c r="D30" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="35"/>
+      <c r="B31" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="95">
         <v>1000</v>
       </c>
-      <c r="E22" s="39">
-        <f t="shared" ref="E22:E43" si="0">IF(D22="","",C22-D22)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="101">
-        <v>800</v>
-      </c>
-      <c r="D23" s="101">
-        <v>800</v>
-      </c>
-      <c r="E23" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="101">
+      <c r="D31" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="35"/>
+      <c r="B32" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="95"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+    </row>
+    <row r="33" spans="1:7" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="46"/>
+      <c r="B33" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="D24" s="101">
+      <c r="C33" s="40">
+        <f>SUM(C20:C32)</f>
+        <v>21565</v>
+      </c>
+      <c r="D33" s="83"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+    </row>
+    <row r="34" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="35"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+    </row>
+    <row r="35" spans="1:7" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="67"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+    </row>
+    <row r="36" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="35"/>
+      <c r="B36" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="95">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+    </row>
+    <row r="37" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="35"/>
+      <c r="B37" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="95">
         <v>200</v>
       </c>
-      <c r="E24" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-    </row>
-    <row r="25" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="101">
-        <v>12</v>
-      </c>
-      <c r="D25" s="101">
-        <v>12</v>
-      </c>
-      <c r="E25" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-    </row>
-    <row r="26" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-    </row>
-    <row r="27" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-    </row>
-    <row r="28" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-    </row>
-    <row r="29" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
-      <c r="B29" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-    </row>
-    <row r="30" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-    </row>
-    <row r="31" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
-      <c r="B31" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-    </row>
-    <row r="32" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
-      <c r="B32" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-    </row>
-    <row r="33" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
-      <c r="B33" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-    </row>
-    <row r="34" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
-      <c r="B34" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-    </row>
-    <row r="35" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
-      <c r="B35" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-    </row>
-    <row r="36" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
-      <c r="B36" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
-      <c r="B37" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="D37" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" s="31"/>
       <c r="F37" s="31"/>
-      <c r="G37" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-    </row>
-    <row r="38" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G37" s="31"/>
+    </row>
+    <row r="38" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="35"/>
-      <c r="B38" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B38" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="95">
+        <v>2749.98</v>
+      </c>
+      <c r="D38" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="31"/>
       <c r="F38" s="31"/>
-      <c r="G38" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-    </row>
-    <row r="39" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G38" s="31"/>
+    </row>
+    <row r="39" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="35"/>
-      <c r="B39" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B39" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="95">
+        <v>100</v>
+      </c>
+      <c r="D39" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="31"/>
       <c r="F39" s="31"/>
-      <c r="G39" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-    </row>
-    <row r="40" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G39" s="31"/>
+    </row>
+    <row r="40" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="35"/>
-      <c r="B40" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B40" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="95">
+        <v>366</v>
+      </c>
+      <c r="D40" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" s="31"/>
       <c r="F40" s="31"/>
-      <c r="G40" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-    </row>
-    <row r="41" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G40" s="31"/>
+    </row>
+    <row r="41" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="35"/>
-      <c r="B41" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B41" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="95">
+        <v>3000</v>
+      </c>
+      <c r="D41" s="83" t="s">
+        <v>203</v>
+      </c>
+      <c r="E41" s="31"/>
       <c r="F41" s="31"/>
-      <c r="G41" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-    </row>
-    <row r="42" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G41" s="31"/>
+    </row>
+    <row r="42" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="35"/>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="95">
+        <v>250</v>
+      </c>
+      <c r="D42" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+    </row>
+    <row r="43" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="35"/>
+      <c r="B43" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="95">
+        <v>110</v>
+      </c>
+      <c r="D43" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+    </row>
+    <row r="44" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="35"/>
+      <c r="B44" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="95">
+        <v>100</v>
+      </c>
+      <c r="D44" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+    </row>
+    <row r="45" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="35"/>
+      <c r="B45" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="89" t="s">
+      <c r="C45" s="95"/>
+      <c r="D45" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-    </row>
-    <row r="43" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
-      <c r="B43" s="58" t="s">
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+    </row>
+    <row r="46" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="43"/>
+      <c r="B46" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="91" t="s">
+      <c r="C46" s="95"/>
+      <c r="D46" s="85" t="s">
         <v>190</v>
       </c>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-    </row>
-    <row r="44" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="41">
-        <f>SUM(C21:C43)</f>
-        <v>2012</v>
-      </c>
-      <c r="D44" s="41">
-        <f>SUM(D21:D43)</f>
-        <v>2012</v>
-      </c>
-      <c r="E44" s="41">
-        <f>SUM(E21:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-    </row>
-    <row r="45" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-    </row>
-    <row r="46" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="73"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="34"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="31"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-    </row>
-    <row r="47" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
-      <c r="B47" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="39" t="str">
-        <f t="shared" ref="E47:E68" si="1">IF(D47="","",C47-D47)</f>
-        <v/>
-      </c>
+      <c r="G46" s="31"/>
+    </row>
+    <row r="47" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="43"/>
+      <c r="B47" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="40">
+        <f>SUM(C35:C46)</f>
+        <v>7875.98</v>
+      </c>
+      <c r="D47" s="83"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="31"/>
-      <c r="G47" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-    </row>
-    <row r="48" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G47" s="31"/>
+    </row>
+    <row r="48" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="35"/>
-      <c r="B48" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B48" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="95">
+        <v>10</v>
+      </c>
+      <c r="D48" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="31"/>
       <c r="F48" s="31"/>
-      <c r="G48" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-    </row>
-    <row r="49" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
-      <c r="B49" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="G48" s="31"/>
+    </row>
+    <row r="49" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="43"/>
+      <c r="B49" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="40">
+        <f>C47*$C$48</f>
+        <v>78759.799999999988</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
       <c r="F49" s="31"/>
-      <c r="G49" s="89" t="s">
-        <v>99</v>
-      </c>
+      <c r="G49" s="83"/>
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
       <c r="J49" s="31"/>
     </row>
-    <row r="50" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="35"/>
-      <c r="B50" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+    <row r="50" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50"/>
+      <c r="E50"/>
       <c r="F50" s="31"/>
-      <c r="G50" s="89" t="s">
-        <v>101</v>
-      </c>
+      <c r="G50" s="83"/>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="31"/>
     </row>
-    <row r="51" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="35"/>
-      <c r="B51" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F51" s="31"/>
-      <c r="G51" s="89" t="s">
-        <v>107</v>
-      </c>
+    <row r="51" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" s="68"/>
+      <c r="C51" s="44">
+        <f>C33+C49</f>
+        <v>100324.79999999999</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="83"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
     </row>
-    <row r="52" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="35"/>
-      <c r="B52" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+    <row r="52" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52"/>
+      <c r="E52"/>
       <c r="F52" s="31"/>
-      <c r="G52" s="89" t="s">
-        <v>109</v>
-      </c>
+      <c r="G52" s="83"/>
       <c r="H52" s="31"/>
       <c r="I52" s="31"/>
       <c r="J52" s="31"/>
     </row>
-    <row r="53" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="35"/>
-      <c r="B53" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F53" s="31"/>
-      <c r="G53" s="89" t="s">
-        <v>111</v>
-      </c>
+    <row r="53" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="68"/>
+      <c r="C53" s="50">
+        <f>C18-C51</f>
+        <v>4675.2000000000116</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="83"/>
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
       <c r="J53" s="31"/>
     </row>
-    <row r="54" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
-      <c r="B54" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="101"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-    </row>
-    <row r="55" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
-      <c r="B55" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F55" s="31"/>
-      <c r="G55" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-    </row>
-    <row r="56" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
-      <c r="B56" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-    </row>
-    <row r="57" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="35"/>
-      <c r="B57" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-    </row>
-    <row r="58" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="35"/>
-      <c r="B58" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="101"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F58" s="31"/>
-      <c r="G58" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-    </row>
-    <row r="59" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="35"/>
-      <c r="B59" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" s="101"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-    </row>
-    <row r="60" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="35"/>
-      <c r="B60" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="101"/>
-      <c r="D60" s="101"/>
-      <c r="E60" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-    </row>
-    <row r="61" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="35"/>
-      <c r="B61" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="101"/>
-      <c r="D61" s="101"/>
-      <c r="E61" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F61" s="31"/>
-      <c r="G61" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-    </row>
-    <row r="62" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="35"/>
-      <c r="B62" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="101"/>
-      <c r="D62" s="101"/>
-      <c r="E62" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F62" s="31"/>
-      <c r="G62" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-    </row>
-    <row r="63" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="35"/>
-      <c r="B63" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="101">
-        <v>63</v>
-      </c>
-      <c r="D63" s="101">
-        <v>65</v>
-      </c>
-      <c r="E63" s="39">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="F63" s="31"/>
-      <c r="G63" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-    </row>
-    <row r="64" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="35"/>
-      <c r="B64" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="101"/>
-      <c r="D64" s="101"/>
-      <c r="E64" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F64" s="31"/>
-      <c r="G64" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-    </row>
-    <row r="65" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="35"/>
-      <c r="B65" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="101"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F65" s="31"/>
-      <c r="G65" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-    </row>
-    <row r="66" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="35"/>
-      <c r="B66" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" s="101">
-        <v>24</v>
-      </c>
-      <c r="D66" s="101">
-        <v>15</v>
-      </c>
-      <c r="E66" s="39">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F66" s="31"/>
-      <c r="G66" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-    </row>
-    <row r="67" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="35"/>
-      <c r="B67" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="101"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F67" s="31"/>
-      <c r="G67" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-    </row>
-    <row r="68" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="45"/>
-      <c r="B68" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" s="101"/>
-      <c r="D68" s="101"/>
-      <c r="E68" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F68" s="31"/>
-      <c r="G68" s="91" t="s">
-        <v>190</v>
-      </c>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-    </row>
-    <row r="69" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="45"/>
-      <c r="B69" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="41">
-        <f>SUM(C46:C68)</f>
-        <v>87</v>
-      </c>
-      <c r="D69" s="41">
-        <f>SUM(D46:D68)</f>
-        <v>80</v>
-      </c>
-      <c r="E69" s="41">
-        <f>SUM(E46:E68)</f>
-        <v>7</v>
-      </c>
-      <c r="F69" s="31"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-    </row>
-    <row r="70" spans="1:10" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="35"/>
-      <c r="B70" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="C70" s="101">
-        <v>6</v>
-      </c>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="89" t="s">
-        <v>191</v>
-      </c>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
-    </row>
-    <row r="71" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="45"/>
-      <c r="B71" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" s="41">
-        <f>C69*$C$70</f>
-        <v>522</v>
-      </c>
-      <c r="D71" s="41">
-        <f>D69*$C$70</f>
-        <v>480</v>
-      </c>
-      <c r="E71" s="41">
-        <f>E69*$C$70</f>
-        <v>42</v>
-      </c>
-      <c r="F71" s="31"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-    </row>
-    <row r="72" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="89"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-    </row>
-    <row r="73" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="B73" s="74"/>
-      <c r="C73" s="47">
-        <f>C44+C71</f>
-        <v>2534</v>
-      </c>
-      <c r="D73" s="47">
-        <f>D44+D71</f>
-        <v>2492</v>
-      </c>
-      <c r="E73" s="55">
-        <f>E44+E71</f>
-        <v>42</v>
-      </c>
-      <c r="F73" s="107"/>
-      <c r="G73" s="89"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-    </row>
-    <row r="74" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="89"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-    </row>
-    <row r="75" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="B75" s="74"/>
-      <c r="C75" s="56">
-        <f>C19-C73</f>
-        <v>27466</v>
-      </c>
-      <c r="D75" s="56">
-        <f>D19-D73</f>
-        <v>27508</v>
-      </c>
-      <c r="E75" s="48">
-        <f>D75-C75</f>
-        <v>42</v>
-      </c>
-      <c r="F75" s="107"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="108"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E77" s="16"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E78" s="16"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E56" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E5:E75">
+  <conditionalFormatting sqref="E5:E19 E49:E53">
     <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>E5&lt;0</formula>
     </cfRule>
@@ -3439,7 +2831,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3832,13 +3224,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3848,55 +3240,55 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="91" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="64" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="58" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>192</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="96" t="s">
+      <c r="G3" s="90" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="61"/>
       <c r="E4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="92"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="98">
         <v>10000</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="98">
         <v>9000</v>
       </c>
-      <c r="E5" s="100">
+      <c r="E5" s="94">
         <f>IF(D5="","",D5-C5)</f>
         <v>-1000</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="87" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3904,31 +3296,31 @@
       <c r="B6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="98">
         <v>5000</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="98">
         <v>5500</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="94">
         <f>IF(D6="","",D6-C6)</f>
         <v>500</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="93"/>
+      <c r="G6" s="87"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="100" t="str">
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="94" t="str">
         <f>IF(D7="","",D7-C7)</f>
         <v/>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="87" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3948,35 +3340,35 @@
         <f>SUM(E4:E7)</f>
         <v>-500</v>
       </c>
-      <c r="G8" s="92"/>
+      <c r="G8" s="86"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E9" s="12"/>
-      <c r="G9" s="92"/>
+      <c r="G9" s="86"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="13"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="93"/>
+      <c r="G10" s="87"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="100" t="str">
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="94" t="str">
         <f>IF(D11="","",D11-C11)</f>
         <v/>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="87" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3984,27 +3376,27 @@
       <c r="B12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="100" t="str">
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="94" t="str">
         <f>IF(D12="","",D12-C12)</f>
         <v/>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="93"/>
+      <c r="G12" s="87"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="100" t="str">
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="94" t="str">
         <f>IF(D13="","",D13-C13)</f>
         <v/>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="87" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4024,31 +3416,31 @@
         <f>SUM(E10:E13)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="92"/>
+      <c r="G14" s="86"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="13"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="93"/>
+      <c r="G15" s="87"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="100" t="str">
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="94" t="str">
         <f>IF(D16="","",D16-C16)</f>
         <v/>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="93" t="s">
+      <c r="G16" s="87" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4056,14 +3448,14 @@
       <c r="B17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="100" t="str">
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="94" t="str">
         <f>IF(D17="","",D17-C17)</f>
         <v/>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="93" t="s">
+      <c r="G17" s="87" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4083,7 +3475,7 @@
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="92"/>
+      <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
@@ -4091,13 +3483,13 @@
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
-      <c r="G19" s="92"/>
+      <c r="G19" s="86"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="69"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="18">
         <f>C8+C14+C18</f>
         <v>15000</v>
@@ -4110,67 +3502,67 @@
         <f>E8+E14+E18</f>
         <v>-500</v>
       </c>
-      <c r="G20" s="92" t="s">
+      <c r="G20" s="86" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C21" s="20"/>
       <c r="E21" s="20"/>
-      <c r="G21" s="92"/>
+      <c r="G21" s="86"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="64" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="58" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="94"/>
+      <c r="G22" s="88"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="67"/>
+      <c r="B23" s="61"/>
       <c r="E23" s="21"/>
-      <c r="G23" s="95"/>
+      <c r="G23" s="89"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="9" t="str">
         <f>IF(D24="","",C24-D24)</f>
         <v/>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="93" t="s">
+      <c r="G24" s="87" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="9" t="str">
         <f t="shared" ref="E25:E71" si="0">IF(D25="","",C25-D25)</f>
         <v/>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="93" t="s">
+      <c r="G25" s="87" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4178,14 +3570,14 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="93" t="s">
+      <c r="G26" s="87" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4193,29 +3585,29 @@
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
       <c r="E27" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="93" t="s">
+      <c r="G27" s="87" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="93" t="s">
+      <c r="G28" s="87" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4223,254 +3615,254 @@
       <c r="B29" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
       <c r="E29" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="93" t="s">
+      <c r="G29" s="87" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
       <c r="E30" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="93" t="s">
+      <c r="G30" s="87" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="93" t="s">
+      <c r="G31" s="87" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
       <c r="E32" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="93" t="s">
+      <c r="G32" s="87" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
       <c r="E33" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="93" t="s">
+      <c r="G33" s="87" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
       <c r="E34" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="93" t="s">
+      <c r="G34" s="87" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
       <c r="E35" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="93" t="s">
+      <c r="G35" s="87" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
       <c r="E36" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="93" t="s">
+      <c r="G36" s="87" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
       <c r="E37" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="93" t="s">
+      <c r="G37" s="87" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
       <c r="E38" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="93" t="s">
+      <c r="G38" s="87" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
       <c r="E39" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="93" t="s">
+      <c r="G39" s="87" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
       <c r="E40" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="93" t="s">
+      <c r="G40" s="87" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
       <c r="E41" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="93" t="s">
+      <c r="G41" s="87" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
       <c r="E42" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="93" t="s">
+      <c r="G42" s="87" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
       <c r="E43" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F43" s="2"/>
-      <c r="G43" s="93" t="s">
+      <c r="G43" s="87" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
       <c r="E44" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="93" t="s">
+      <c r="G44" s="87" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="C45" s="104"/>
-      <c r="D45" s="104"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
       <c r="E45" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="93" t="s">
+      <c r="G45" s="87" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4478,14 +3870,14 @@
       <c r="B46" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="104"/>
-      <c r="D46" s="104"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
       <c r="E46" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="93" t="s">
+      <c r="G46" s="87" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4493,74 +3885,74 @@
       <c r="B47" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
       <c r="E47" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="92" t="s">
+      <c r="G47" s="86" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
       <c r="E48" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="93" t="s">
+      <c r="G48" s="87" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
       <c r="E49" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="93" t="s">
+      <c r="G49" s="87" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="104"/>
-      <c r="D50" s="104"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
       <c r="E50" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="93" t="s">
+      <c r="G50" s="87" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="C51" s="104"/>
-      <c r="D51" s="104"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
       <c r="E51" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="93" t="s">
+      <c r="G51" s="87" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4568,44 +3960,44 @@
       <c r="B52" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
       <c r="E52" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F52" s="2"/>
-      <c r="G52" s="93" t="s">
+      <c r="G52" s="87" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="104"/>
-      <c r="D53" s="104"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
       <c r="E53" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F53" s="2"/>
-      <c r="G53" s="93" t="s">
+      <c r="G53" s="87" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
       <c r="E54" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="93" t="s">
+      <c r="G54" s="87" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4613,14 +4005,14 @@
       <c r="B55" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="98"/>
       <c r="E55" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="92" t="s">
+      <c r="G55" s="86" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4628,74 +4020,74 @@
       <c r="B56" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="98"/>
       <c r="E56" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F56" s="2"/>
-      <c r="G56" s="93" t="s">
+      <c r="G56" s="87" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="65" t="s">
+      <c r="B57" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="104"/>
-      <c r="D57" s="104"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="98"/>
       <c r="E57" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F57" s="2"/>
-      <c r="G57" s="92" t="s">
+      <c r="G57" s="86" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="65" t="s">
+      <c r="B58" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="98"/>
       <c r="E58" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F58" s="2"/>
-      <c r="G58" s="93" t="s">
+      <c r="G58" s="87" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="104"/>
-      <c r="D59" s="104"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="98"/>
       <c r="E59" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="92" t="s">
+      <c r="G59" s="86" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="65" t="s">
+      <c r="B60" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="104"/>
-      <c r="D60" s="104"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
       <c r="E60" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="93" t="s">
+      <c r="G60" s="87" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4703,14 +4095,14 @@
       <c r="B61" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="104"/>
-      <c r="D61" s="104"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="98"/>
       <c r="E61" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="93" t="s">
+      <c r="G61" s="87" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4718,44 +4110,44 @@
       <c r="B62" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="104"/>
-      <c r="D62" s="104"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
       <c r="E62" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F62" s="2"/>
-      <c r="G62" s="93" t="s">
+      <c r="G62" s="87" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="104"/>
-      <c r="D63" s="104"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="98"/>
       <c r="E63" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="93" t="s">
+      <c r="G63" s="87" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="65" t="s">
+      <c r="B64" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="104"/>
-      <c r="D64" s="104"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="98"/>
       <c r="E64" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F64" s="2"/>
-      <c r="G64" s="93" t="s">
+      <c r="G64" s="87" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4763,14 +4155,14 @@
       <c r="B65" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="104"/>
-      <c r="D65" s="104"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="98"/>
       <c r="E65" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="93" t="s">
+      <c r="G65" s="87" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4778,29 +4170,29 @@
       <c r="B66" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="104"/>
-      <c r="D66" s="104"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98"/>
       <c r="E66" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="93" t="s">
+      <c r="G66" s="87" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="65" t="s">
+      <c r="B67" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="C67" s="104"/>
-      <c r="D67" s="104"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="98"/>
       <c r="E67" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F67" s="2"/>
-      <c r="G67" s="93" t="s">
+      <c r="G67" s="87" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4808,59 +4200,59 @@
       <c r="B68" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C68" s="104"/>
-      <c r="D68" s="104"/>
+      <c r="C68" s="98"/>
+      <c r="D68" s="98"/>
       <c r="E68" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="93" t="s">
+      <c r="G68" s="87" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="65" t="s">
+      <c r="B69" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="C69" s="104"/>
-      <c r="D69" s="104"/>
+      <c r="C69" s="98"/>
+      <c r="D69" s="98"/>
       <c r="E69" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F69" s="2"/>
-      <c r="G69" s="93" t="s">
+      <c r="G69" s="87" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="65" t="s">
+      <c r="B70" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="104"/>
-      <c r="D70" s="104"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="98"/>
       <c r="E70" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F70" s="2"/>
-      <c r="G70" s="93" t="s">
+      <c r="G70" s="87" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="66" t="s">
+      <c r="B71" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="104"/>
-      <c r="D71" s="104"/>
+      <c r="C71" s="98"/>
+      <c r="D71" s="98"/>
       <c r="E71" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F71" s="2"/>
-      <c r="G71" s="95" t="s">
+      <c r="G71" s="89" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4881,346 +4273,346 @@
         <f>SUM(E23:E71)</f>
         <v>0</v>
       </c>
-      <c r="G72" s="92"/>
+      <c r="G72" s="86"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B73" s="10"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
-      <c r="G73" s="92"/>
+      <c r="G73" s="86"/>
     </row>
     <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="76" t="s">
+      <c r="A74" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B74" s="68"/>
+      <c r="B74" s="62"/>
       <c r="E74" s="21"/>
-      <c r="G74" s="92"/>
+      <c r="G74" s="86"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B75" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="104"/>
-      <c r="D75" s="104"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="98"/>
       <c r="E75" s="9" t="str">
         <f>IF(D75="","",C75-D75)</f>
         <v/>
       </c>
       <c r="F75" s="2"/>
-      <c r="G75" s="93" t="s">
+      <c r="G75" s="87" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="65" t="s">
+      <c r="B76" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="104"/>
-      <c r="D76" s="104"/>
+      <c r="C76" s="98"/>
+      <c r="D76" s="98"/>
       <c r="E76" s="9" t="str">
         <f t="shared" ref="E76:E101" si="1">IF(D76="","",C76-D76)</f>
         <v/>
       </c>
       <c r="F76" s="2"/>
-      <c r="G76" s="93" t="s">
+      <c r="G76" s="87" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="65" t="s">
+      <c r="B77" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C77" s="104"/>
-      <c r="D77" s="104"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="98"/>
       <c r="E77" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F77" s="2"/>
-      <c r="G77" s="93" t="s">
+      <c r="G77" s="87" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="65" t="s">
+      <c r="B78" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="C78" s="104"/>
-      <c r="D78" s="104"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
       <c r="E78" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F78" s="2"/>
-      <c r="G78" s="93" t="s">
+      <c r="G78" s="87" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B79" s="65" t="s">
+      <c r="B79" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="C79" s="104"/>
-      <c r="D79" s="104"/>
+      <c r="C79" s="98"/>
+      <c r="D79" s="98"/>
       <c r="E79" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F79" s="2"/>
-      <c r="G79" s="93" t="s">
+      <c r="G79" s="87" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B80" s="65" t="s">
+      <c r="B80" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="C80" s="104"/>
-      <c r="D80" s="104"/>
+      <c r="C80" s="98"/>
+      <c r="D80" s="98"/>
       <c r="E80" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F80" s="2"/>
-      <c r="G80" s="93" t="s">
+      <c r="G80" s="87" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B81" s="65" t="s">
+      <c r="B81" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="C81" s="104"/>
-      <c r="D81" s="104"/>
+      <c r="C81" s="98"/>
+      <c r="D81" s="98"/>
       <c r="E81" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F81" s="2"/>
-      <c r="G81" s="93" t="s">
+      <c r="G81" s="87" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B82" s="65" t="s">
+      <c r="B82" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C82" s="104"/>
-      <c r="D82" s="104"/>
+      <c r="C82" s="98"/>
+      <c r="D82" s="98"/>
       <c r="E82" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F82" s="2"/>
-      <c r="G82" s="93" t="s">
+      <c r="G82" s="87" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83" s="65" t="s">
+      <c r="B83" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="104"/>
-      <c r="D83" s="104"/>
+      <c r="C83" s="98"/>
+      <c r="D83" s="98"/>
       <c r="E83" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F83" s="2"/>
-      <c r="G83" s="93" t="s">
+      <c r="G83" s="87" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B84" s="65" t="s">
+      <c r="B84" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C84" s="104"/>
-      <c r="D84" s="104"/>
+      <c r="C84" s="98"/>
+      <c r="D84" s="98"/>
       <c r="E84" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F84" s="2"/>
-      <c r="G84" s="93" t="s">
+      <c r="G84" s="87" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B85" s="65" t="s">
+      <c r="B85" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="C85" s="104"/>
-      <c r="D85" s="104"/>
+      <c r="C85" s="98"/>
+      <c r="D85" s="98"/>
       <c r="E85" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F85" s="2"/>
-      <c r="G85" s="93" t="s">
+      <c r="G85" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B86" s="65" t="s">
+      <c r="B86" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="104"/>
-      <c r="D86" s="104"/>
+      <c r="C86" s="98"/>
+      <c r="D86" s="98"/>
       <c r="E86" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F86" s="2"/>
-      <c r="G86" s="93" t="s">
+      <c r="G86" s="87" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B87" s="65" t="s">
+      <c r="B87" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="C87" s="104"/>
-      <c r="D87" s="104"/>
+      <c r="C87" s="98"/>
+      <c r="D87" s="98"/>
       <c r="E87" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F87" s="2"/>
-      <c r="G87" s="93" t="s">
+      <c r="G87" s="87" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B88" s="65" t="s">
+      <c r="B88" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="C88" s="104"/>
-      <c r="D88" s="104"/>
+      <c r="C88" s="98"/>
+      <c r="D88" s="98"/>
       <c r="E88" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F88" s="2"/>
-      <c r="G88" s="93" t="s">
+      <c r="G88" s="87" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B89" s="65" t="s">
+      <c r="B89" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="104"/>
-      <c r="D89" s="104"/>
+      <c r="C89" s="98"/>
+      <c r="D89" s="98"/>
       <c r="E89" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F89" s="2"/>
-      <c r="G89" s="93" t="s">
+      <c r="G89" s="87" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B90" s="65" t="s">
+      <c r="B90" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C90" s="104"/>
-      <c r="D90" s="104"/>
+      <c r="C90" s="98"/>
+      <c r="D90" s="98"/>
       <c r="E90" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F90" s="2"/>
-      <c r="G90" s="93" t="s">
+      <c r="G90" s="87" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B91" s="65" t="s">
+      <c r="B91" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C91" s="104"/>
-      <c r="D91" s="104"/>
+      <c r="C91" s="98"/>
+      <c r="D91" s="98"/>
       <c r="E91" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F91" s="2"/>
-      <c r="G91" s="93" t="s">
+      <c r="G91" s="87" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B92" s="65" t="s">
+      <c r="B92" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="C92" s="104"/>
-      <c r="D92" s="104"/>
+      <c r="C92" s="98"/>
+      <c r="D92" s="98"/>
       <c r="E92" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F92" s="2"/>
-      <c r="G92" s="93" t="s">
+      <c r="G92" s="87" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B93" s="65" t="s">
+      <c r="B93" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="C93" s="104"/>
-      <c r="D93" s="104"/>
+      <c r="C93" s="98"/>
+      <c r="D93" s="98"/>
       <c r="E93" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F93" s="2"/>
-      <c r="G93" s="93" t="s">
+      <c r="G93" s="87" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B94" s="65" t="s">
+      <c r="B94" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="104"/>
-      <c r="D94" s="104"/>
+      <c r="C94" s="98"/>
+      <c r="D94" s="98"/>
       <c r="E94" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F94" s="2"/>
-      <c r="G94" s="93" t="s">
+      <c r="G94" s="87" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B95" s="65" t="s">
+      <c r="B95" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="C95" s="104"/>
-      <c r="D95" s="104"/>
+      <c r="C95" s="98"/>
+      <c r="D95" s="98"/>
       <c r="E95" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F95" s="2"/>
-      <c r="G95" s="93" t="s">
+      <c r="G95" s="87" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B96" s="65" t="s">
+      <c r="B96" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C96" s="104">
+      <c r="C96" s="98">
         <v>63</v>
       </c>
-      <c r="D96" s="104">
+      <c r="D96" s="98">
         <v>65</v>
       </c>
       <c r="E96" s="9">
@@ -5228,37 +4620,37 @@
         <v>-2</v>
       </c>
       <c r="F96" s="2"/>
-      <c r="G96" s="93" t="s">
+      <c r="G96" s="87" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B97" s="65" t="s">
+      <c r="B97" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C97" s="104"/>
-      <c r="D97" s="104"/>
+      <c r="C97" s="98"/>
+      <c r="D97" s="98"/>
       <c r="E97" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F97" s="2"/>
-      <c r="G97" s="93" t="s">
+      <c r="G97" s="87" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B98" s="65" t="s">
+      <c r="B98" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="C98" s="104"/>
-      <c r="D98" s="104"/>
+      <c r="C98" s="98"/>
+      <c r="D98" s="98"/>
       <c r="E98" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F98" s="2"/>
-      <c r="G98" s="93" t="s">
+      <c r="G98" s="87" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5266,10 +4658,10 @@
       <c r="B99" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C99" s="104">
+      <c r="C99" s="98">
         <v>24</v>
       </c>
-      <c r="D99" s="104">
+      <c r="D99" s="98">
         <v>24</v>
       </c>
       <c r="E99" s="9">
@@ -5277,38 +4669,38 @@
         <v>0</v>
       </c>
       <c r="F99" s="2"/>
-      <c r="G99" s="93" t="s">
+      <c r="G99" s="87" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B100" s="65" t="s">
+      <c r="B100" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C100" s="104"/>
-      <c r="D100" s="104"/>
+      <c r="C100" s="98"/>
+      <c r="D100" s="98"/>
       <c r="E100" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F100" s="2"/>
-      <c r="G100" s="93" t="s">
+      <c r="G100" s="87" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="16"/>
-      <c r="B101" s="66" t="s">
+      <c r="B101" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C101" s="104"/>
-      <c r="D101" s="104"/>
+      <c r="C101" s="98"/>
+      <c r="D101" s="98"/>
       <c r="E101" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F101" s="2"/>
-      <c r="G101" s="95" t="s">
+      <c r="G101" s="89" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5329,18 +4721,18 @@
         <f>SUM(E74:E101)</f>
         <v>-2</v>
       </c>
-      <c r="G102" s="92"/>
+      <c r="G102" s="86"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B103" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C103" s="104">
+      <c r="C103" s="98">
         <v>6</v>
       </c>
       <c r="D103" s="25"/>
       <c r="E103" s="25"/>
-      <c r="G103" s="92" t="s">
+      <c r="G103" s="86" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5361,7 +4753,7 @@
         <f>E102*$C$103</f>
         <v>-12</v>
       </c>
-      <c r="G104" s="92"/>
+      <c r="G104" s="86"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="16"/>
@@ -5369,13 +4761,13 @@
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
-      <c r="G105" s="92"/>
+      <c r="G105" s="86"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="69" t="s">
+      <c r="A106" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="B106" s="69"/>
+      <c r="B106" s="63"/>
       <c r="C106" s="18">
         <f>C72+C104</f>
         <v>522</v>
@@ -5388,7 +4780,7 @@
         <f>E72+E104</f>
         <v>-12</v>
       </c>
-      <c r="G106" s="92"/>
+      <c r="G106" s="86"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="15"/>
@@ -5396,13 +4788,13 @@
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="17"/>
-      <c r="G107" s="92"/>
+      <c r="G107" s="86"/>
     </row>
     <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="69" t="s">
+      <c r="A108" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="B108" s="69"/>
+      <c r="B108" s="63"/>
       <c r="C108" s="28">
         <f>C20-C106</f>
         <v>14478</v>
@@ -5415,7 +4807,7 @@
         <f>D108-C108</f>
         <v>-512</v>
       </c>
-      <c r="G108" s="92"/>
+      <c r="G108" s="86"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="16"/>
@@ -5423,7 +4815,7 @@
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
-      <c r="G109" s="92"/>
+      <c r="G109" s="86"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E110" s="16"/>
@@ -5495,174 +4887,174 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="87" customWidth="1"/>
-    <col min="2" max="2" width="66.5" style="87" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="81" customWidth="1"/>
+    <col min="2" max="2" width="66.5" style="81" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78"/>
-      <c r="B1" s="79" t="s">
+      <c r="A1" s="72"/>
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="80"/>
+      <c r="C1" s="74"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="78"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="80"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="74"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="78"/>
-      <c r="B3" s="80" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="80"/>
+      <c r="C3" s="74"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="78"/>
-      <c r="B4" s="106" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="100" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="78"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="80"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="74"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="72"/>
+      <c r="B6" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="74"/>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="78"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="80"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="74"/>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="82" t="s">
+      <c r="A8" s="72"/>
+      <c r="B8" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="74"/>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="78"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="80"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="74"/>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="78"/>
-      <c r="B10" s="82" t="s">
+      <c r="A10" s="72"/>
+      <c r="B10" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="74"/>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="78"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="80"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="78"/>
-      <c r="B12" s="82" t="s">
+      <c r="A12" s="72"/>
+      <c r="B12" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="80"/>
+      <c r="C12" s="74"/>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="78"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="80"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="78"/>
-      <c r="B14" s="84" t="s">
+      <c r="A14" s="72"/>
+      <c r="B14" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="80"/>
+      <c r="C14" s="74"/>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="78"/>
-      <c r="B15" s="82" t="s">
+      <c r="A15" s="72"/>
+      <c r="B15" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="C15" s="80"/>
+      <c r="C15" s="74"/>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="78"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="80"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="74"/>
     </row>
     <row r="17" spans="1:3" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
-      <c r="B17" s="86" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="80"/>
+      <c r="C17" s="74"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="80"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="74"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="80"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="74"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="80"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="74"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="80"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="74"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="78"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="80"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="74"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="80"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="74"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="80"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="74"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="80"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="74"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="80"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="74"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="80"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="74"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="78"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="80"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="74"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="80"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="74"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/business-startup-costs.xlsx
+++ b/business-startup-costs.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="220">
   <si>
     <t>[Business Name]</t>
   </si>
@@ -819,13 +819,25 @@
     <t>← Desks, chairs, counters and storage racks</t>
   </si>
   <si>
-    <t>← Monthly wage for the three employees</t>
-  </si>
-  <si>
-    <t>← Computers, monitors, printers, software licenses.</t>
-  </si>
-  <si>
     <t>← Register LTD Company</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>←Total office rent per year</t>
+  </si>
+  <si>
+    <t>←  Estimated number of months until your company will have enough income to sustain itself.</t>
+  </si>
+  <si>
+    <t>← Monthly wage for all three employees</t>
+  </si>
+  <si>
+    <t>← Fee for having an internet connection</t>
+  </si>
+  <si>
+    <t>← Computers, monitors, software licenses.</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1226,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -1272,13 +1284,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1299,9 +1304,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1318,9 +1320,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1407,9 +1406,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1425,9 +1421,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1468,6 +1461,9 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1475,7 +1471,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1525,6 +1521,132 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="9"/>
+        <name val="Arial"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="9"/>
+        <name val="Arial"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="9"/>
+        <name val="Arial"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1722,6 +1844,17 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A2:C48" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Column1" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="13"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2012,16 +2145,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.75" style="5" customWidth="1"/>
     <col min="3" max="5" width="14.25" style="5" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.375" style="1" customWidth="1"/>
@@ -2029,11 +2162,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="D1" s="103" t="s">
+      <c r="B1" s="96"/>
+      <c r="D1" s="97" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="31"/>
@@ -2042,787 +2175,719 @@
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
     </row>
-    <row r="2" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+    <row r="2" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2"/>
       <c r="E2"/>
       <c r="F2" s="31"/>
-      <c r="G2" s="82"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
     </row>
-    <row r="3" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="36" t="s">
-        <v>201</v>
-      </c>
+    <row r="3" spans="1:10" s="67" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="33"/>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="92"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
     </row>
-    <row r="4" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="35"/>
+    <row r="4" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="89">
+        <v>10000</v>
+      </c>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="83"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
     </row>
-    <row r="5" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="95">
+    <row r="5" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="89">
         <v>10000</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" s="31"/>
-      <c r="G5" s="83"/>
+      <c r="G5"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="95">
-        <v>10000</v>
-      </c>
+    <row r="6" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="90"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" s="31"/>
-      <c r="G6" s="83"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="96"/>
+    <row r="7" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="38">
+        <f>SUM(C3:C6)</f>
+        <v>20000</v>
+      </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7" s="31"/>
-      <c r="G7"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="40">
-        <f>SUM(C4:C7)</f>
-        <v>20000</v>
-      </c>
+    <row r="8" spans="1:10" s="67" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="63"/>
+      <c r="C8" s="33"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8" s="31"/>
-      <c r="G8" s="83"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
     </row>
-    <row r="9" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="35"/>
+    <row r="9" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="89">
+        <v>15000</v>
+      </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" s="31"/>
-      <c r="G9" s="83"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
     </row>
-    <row r="10" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="95">
-        <v>15000</v>
-      </c>
+    <row r="10" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="89"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="83"/>
+      <c r="G10" s="78"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
     </row>
-    <row r="11" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="95"/>
+    <row r="11" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="B11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="38">
+        <f>SUM(C8:C10)</f>
+        <v>15000</v>
+      </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11" s="31"/>
-      <c r="G11" s="83"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="40">
-        <f>SUM(C9:C11)</f>
-        <v>15000</v>
-      </c>
+    <row r="12" spans="1:10" s="67" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="33"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" s="31"/>
-      <c r="G12" s="83"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="35"/>
+    <row r="13" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+      <c r="B13" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="89">
+        <v>20000</v>
+      </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" s="31"/>
-      <c r="G13" s="83"/>
+      <c r="G13" s="78"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
     </row>
-    <row r="14" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="95">
-        <v>20000</v>
+    <row r="14" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+      <c r="B14" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="89">
+        <v>50000</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="83"/>
+      <c r="G14" s="78"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="95">
-        <v>50000</v>
+    <row r="15" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="38">
+        <f>SUM(C12:C14)</f>
+        <v>70000</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="83"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
     </row>
-    <row r="16" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="40">
-        <f>SUM(C13:C15)</f>
-        <v>70000</v>
+    <row r="16" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="41">
+        <f>C7+C11+C15</f>
+        <v>105000</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="83"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17"/>
-      <c r="E17"/>
+    <row r="17" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="61"/>
+      <c r="C17" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="80"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="31"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="44">
-        <f>C8+C12+C16</f>
-        <v>105000</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7" s="67" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="33"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="85"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:7" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="89">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="89">
+        <v>4000</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>32</v>
+      </c>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="95">
-        <v>500</v>
-      </c>
-      <c r="D21" s="83" t="s">
-        <v>205</v>
+    <row r="21" spans="1:7" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+      <c r="B21" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="89">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
-      <c r="B22" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="95">
-        <v>3000</v>
-      </c>
-      <c r="D22" s="83" t="s">
-        <v>32</v>
+    <row r="22" spans="1:7" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="B22" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="89">
+        <v>12</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>213</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="95">
-        <v>1000</v>
-      </c>
-      <c r="D23" s="83" t="s">
-        <v>34</v>
+    <row r="23" spans="1:7" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="89">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>219</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="95">
-        <v>12</v>
-      </c>
-      <c r="D24" s="83" t="s">
-        <v>215</v>
+    <row r="24" spans="1:7" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="89">
+        <v>100</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="95">
-        <v>12000</v>
-      </c>
-      <c r="D25" s="83" t="s">
-        <v>214</v>
+    <row r="25" spans="1:7" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
+      <c r="B25" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="89">
+        <v>1200</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>212</v>
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="95">
-        <v>100</v>
-      </c>
-      <c r="D26" s="83" t="s">
-        <v>52</v>
+    <row r="26" spans="1:7" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="33"/>
+      <c r="B26" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="89">
+        <v>53</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>206</v>
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="95">
-        <v>1200</v>
-      </c>
-      <c r="D27" s="83" t="s">
-        <v>212</v>
+    <row r="27" spans="1:7" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
+      <c r="B27" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="89">
+        <v>3000</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>70</v>
       </c>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="95">
-        <v>53</v>
-      </c>
-      <c r="D28" s="83" t="s">
-        <v>206</v>
+    <row r="28" spans="1:7" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="89">
+        <v>200</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
-      <c r="B29" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="95">
-        <v>2500</v>
-      </c>
-      <c r="D29" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="31"/>
+    <row r="29" spans="1:7" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
+      <c r="B29" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="89">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29"/>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="95">
-        <v>200</v>
-      </c>
-      <c r="D30" s="83" t="s">
-        <v>82</v>
+    <row r="30" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="89">
+        <v>4250</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
     </row>
-    <row r="31" spans="1:10" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
-      <c r="B31" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="C31" s="95">
-        <v>1000</v>
-      </c>
-      <c r="D31" s="83" t="s">
-        <v>208</v>
-      </c>
+    <row r="31" spans="1:7" s="67" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="38">
+        <f>SUM(C18:C30)</f>
+        <v>25815</v>
+      </c>
+      <c r="D31" s="31"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
     </row>
-    <row r="32" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
-      <c r="B32" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="95"/>
-      <c r="D32"/>
-      <c r="E32"/>
+    <row r="32" spans="1:7" s="67" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="63"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
     </row>
-    <row r="33" spans="1:7" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33" s="40">
-        <f>SUM(C20:C32)</f>
-        <v>21565</v>
-      </c>
-      <c r="D33" s="83"/>
+    <row r="33" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="89">
+        <v>900</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>93</v>
+      </c>
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
     </row>
-    <row r="34" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="83"/>
+    <row r="34" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="33"/>
+      <c r="B34" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="89">
+        <v>200</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>207</v>
+      </c>
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
     </row>
-    <row r="35" spans="1:7" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="83"/>
+    <row r="35" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="33"/>
+      <c r="B35" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="89">
+        <v>2749.98</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>217</v>
+      </c>
       <c r="E35" s="31"/>
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
     </row>
-    <row r="36" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
-      <c r="B36" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="95">
-        <v>1000</v>
-      </c>
-      <c r="D36" s="83" t="s">
-        <v>93</v>
+    <row r="36" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="33"/>
+      <c r="B36" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="89">
+        <v>100</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>218</v>
       </c>
       <c r="E36" s="31"/>
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
     </row>
-    <row r="37" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
-      <c r="B37" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="95">
-        <v>200</v>
-      </c>
-      <c r="D37" s="83" t="s">
-        <v>207</v>
+    <row r="37" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="33"/>
+      <c r="B37" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="89">
+        <v>366</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>211</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
     </row>
-    <row r="38" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
-      <c r="B38" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="C38" s="95">
-        <v>2749.98</v>
-      </c>
-      <c r="D38" s="83" t="s">
-        <v>213</v>
+    <row r="38" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="B38" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="89">
+        <v>3000</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>203</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
     </row>
-    <row r="39" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
-      <c r="B39" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="95">
-        <v>100</v>
-      </c>
-      <c r="D39" s="83" t="s">
-        <v>109</v>
+    <row r="39" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="89">
+        <v>250</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>131</v>
       </c>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
     </row>
-    <row r="40" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
-      <c r="B40" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="C40" s="95">
-        <v>366</v>
-      </c>
-      <c r="D40" s="83" t="s">
-        <v>211</v>
+    <row r="40" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="33"/>
+      <c r="B40" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="89">
+        <v>110</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>209</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="31"/>
       <c r="G40" s="31"/>
     </row>
-    <row r="41" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
-      <c r="B41" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="95">
-        <v>3000</v>
-      </c>
-      <c r="D41" s="83" t="s">
-        <v>203</v>
+    <row r="41" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="33"/>
+      <c r="B41" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="89">
+        <v>175</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>137</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
       <c r="G41" s="31"/>
     </row>
-    <row r="42" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
-      <c r="B42" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="95">
-        <v>250</v>
-      </c>
-      <c r="D42" s="83" t="s">
-        <v>131</v>
-      </c>
+    <row r="42" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="33"/>
+      <c r="B42" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="89"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
     </row>
-    <row r="43" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
-      <c r="B43" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="95">
-        <v>110</v>
-      </c>
-      <c r="D43" s="83" t="s">
-        <v>209</v>
-      </c>
+    <row r="43" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="40"/>
+      <c r="B43" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="89"/>
+      <c r="D43"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
     </row>
-    <row r="44" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
-      <c r="B44" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="95">
-        <v>100</v>
-      </c>
-      <c r="D44" s="83" t="s">
-        <v>137</v>
+    <row r="44" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="40"/>
+      <c r="B44" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="38">
+        <f>SUM(C32:C43)</f>
+        <v>7850.98</v>
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
     </row>
-    <row r="45" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
-      <c r="B45" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="95"/>
-      <c r="D45" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="31"/>
+    <row r="45" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="33"/>
+      <c r="B45" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="89">
+        <v>10</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45"/>
       <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-    </row>
-    <row r="46" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="43"/>
-      <c r="B46" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="95"/>
-      <c r="D46" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-    </row>
-    <row r="47" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="43"/>
-      <c r="B47" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="40">
-        <f>SUM(C35:C46)</f>
-        <v>7875.98</v>
-      </c>
-      <c r="D47" s="83"/>
-      <c r="E47" s="31"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+    </row>
+    <row r="46" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="40"/>
+      <c r="B46" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="38">
+        <f>C44*$C$45</f>
+        <v>78509.799999999988</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+    </row>
+    <row r="47" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="64"/>
+      <c r="C47" s="41">
+        <f>C31+C46</f>
+        <v>104324.79999999999</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
       <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-    </row>
-    <row r="48" spans="1:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
-      <c r="B48" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="95">
-        <v>10</v>
-      </c>
-      <c r="D48" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-    </row>
-    <row r="49" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="43"/>
-      <c r="B49" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="C49" s="40">
-        <f>C47*$C$48</f>
-        <v>78759.799999999988</v>
-      </c>
-      <c r="D49"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="64"/>
+      <c r="C48" s="46">
+        <f>C16-C47</f>
+        <v>675.20000000001164</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-    </row>
-    <row r="50" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-    </row>
-    <row r="51" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="44">
-        <f>C33+C49</f>
-        <v>100324.79999999999</v>
-      </c>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-    </row>
-    <row r="52" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-    </row>
-    <row r="53" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="50">
-        <f>C18-C51</f>
-        <v>4675.2000000000116</v>
-      </c>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E55"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E56" s="16"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E50" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E5:E19 E49:E53">
+  <conditionalFormatting sqref="E3:E16 E45:E47">
     <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
-      <formula>E5&lt;0</formula>
+      <formula>E3&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2831,7 +2896,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3224,13 +3289,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3240,55 +3305,55 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="86" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="34" t="s">
         <v>192</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="85" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="E4" s="38" t="s">
+      <c r="B4" s="57"/>
+      <c r="E4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="98">
+      <c r="C5" s="92">
         <v>10000</v>
       </c>
-      <c r="D5" s="98">
+      <c r="D5" s="92">
         <v>9000</v>
       </c>
-      <c r="E5" s="94">
+      <c r="E5" s="88">
         <f>IF(D5="","",D5-C5)</f>
         <v>-1000</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="82" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3296,31 +3361,31 @@
       <c r="B6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="98">
+      <c r="C6" s="92">
         <v>5000</v>
       </c>
-      <c r="D6" s="98">
+      <c r="D6" s="92">
         <v>5500</v>
       </c>
-      <c r="E6" s="94">
+      <c r="E6" s="88">
         <f>IF(D6="","",D6-C6)</f>
         <v>500</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="87"/>
+      <c r="G6" s="82"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="94" t="str">
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="88" t="str">
         <f>IF(D7="","",D7-C7)</f>
         <v/>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="87" t="s">
+      <c r="G7" s="82" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3340,35 +3405,35 @@
         <f>SUM(E4:E7)</f>
         <v>-500</v>
       </c>
-      <c r="G8" s="86"/>
+      <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E9" s="12"/>
-      <c r="G9" s="86"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="13"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="87"/>
+      <c r="G10" s="82"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="94" t="str">
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="88" t="str">
         <f>IF(D11="","",D11-C11)</f>
         <v/>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="87" t="s">
+      <c r="G11" s="82" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3376,27 +3441,27 @@
       <c r="B12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="94" t="str">
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="88" t="str">
         <f>IF(D12="","",D12-C12)</f>
         <v/>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="87"/>
+      <c r="G12" s="82"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="94" t="str">
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="88" t="str">
         <f>IF(D13="","",D13-C13)</f>
         <v/>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="87" t="s">
+      <c r="G13" s="82" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3416,31 +3481,31 @@
         <f>SUM(E10:E13)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="86"/>
+      <c r="G14" s="81"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="62"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="13"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="87"/>
+      <c r="G15" s="82"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="94" t="str">
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="88" t="str">
         <f>IF(D16="","",D16-C16)</f>
         <v/>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="87" t="s">
+      <c r="G16" s="82" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3448,14 +3513,14 @@
       <c r="B17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="94" t="str">
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="88" t="str">
         <f>IF(D17="","",D17-C17)</f>
         <v/>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="87" t="s">
+      <c r="G17" s="82" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3475,7 +3540,7 @@
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="86"/>
+      <c r="G18" s="81"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
@@ -3483,13 +3548,13 @@
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
-      <c r="G19" s="86"/>
+      <c r="G19" s="81"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="63"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="18">
         <f>C8+C14+C18</f>
         <v>15000</v>
@@ -3502,67 +3567,67 @@
         <f>E8+E14+E18</f>
         <v>-500</v>
       </c>
-      <c r="G20" s="86" t="s">
+      <c r="G20" s="81" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C21" s="20"/>
       <c r="E21" s="20"/>
-      <c r="G21" s="86"/>
+      <c r="G21" s="81"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="58" t="s">
+      <c r="B22" s="60"/>
+      <c r="C22" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="54" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="88"/>
+      <c r="G22" s="83"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="61"/>
+      <c r="B23" s="57"/>
       <c r="E23" s="21"/>
-      <c r="G23" s="89"/>
+      <c r="G23" s="84"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="9" t="str">
         <f>IF(D24="","",C24-D24)</f>
         <v/>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="87" t="s">
+      <c r="G24" s="82" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="9" t="str">
         <f t="shared" ref="E25:E71" si="0">IF(D25="","",C25-D25)</f>
         <v/>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="87" t="s">
+      <c r="G25" s="82" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3570,14 +3635,14 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="87" t="s">
+      <c r="G26" s="82" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3585,29 +3650,29 @@
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
       <c r="E27" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="87" t="s">
+      <c r="G27" s="82" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="87" t="s">
+      <c r="G28" s="82" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3615,254 +3680,254 @@
       <c r="B29" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
       <c r="E29" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="87" t="s">
+      <c r="G29" s="82" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
       <c r="E30" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="87" t="s">
+      <c r="G30" s="82" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
       <c r="E31" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="87" t="s">
+      <c r="G31" s="82" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="87" t="s">
+      <c r="G32" s="82" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="87" t="s">
+      <c r="G33" s="82" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="87" t="s">
+      <c r="G34" s="82" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
       <c r="E35" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="87" t="s">
+      <c r="G35" s="82" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="87" t="s">
+      <c r="G36" s="82" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="87" t="s">
+      <c r="G37" s="82" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="87" t="s">
+      <c r="G38" s="82" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
       <c r="E39" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="87" t="s">
+      <c r="G39" s="82" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="87" t="s">
+      <c r="G40" s="82" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
       <c r="E41" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="87" t="s">
+      <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
       <c r="E42" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="87" t="s">
+      <c r="G42" s="82" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
       <c r="E43" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F43" s="2"/>
-      <c r="G43" s="87" t="s">
+      <c r="G43" s="82" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
       <c r="E44" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="87" t="s">
+      <c r="G44" s="82" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
       <c r="E45" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="87" t="s">
+      <c r="G45" s="82" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3870,14 +3935,14 @@
       <c r="B46" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="98"/>
-      <c r="D46" s="98"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
       <c r="E46" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="87" t="s">
+      <c r="G46" s="82" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3885,74 +3950,74 @@
       <c r="B47" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
       <c r="E47" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="86" t="s">
+      <c r="G47" s="81" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
       <c r="E48" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="87" t="s">
+      <c r="G48" s="82" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
       <c r="E49" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="87" t="s">
+      <c r="G49" s="82" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
       <c r="E50" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="87" t="s">
+      <c r="G50" s="82" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
       <c r="E51" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="87" t="s">
+      <c r="G51" s="82" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3960,44 +4025,44 @@
       <c r="B52" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
       <c r="E52" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F52" s="2"/>
-      <c r="G52" s="87" t="s">
+      <c r="G52" s="82" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
       <c r="E53" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F53" s="2"/>
-      <c r="G53" s="87" t="s">
+      <c r="G53" s="82" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="59" t="s">
+      <c r="B54" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="98"/>
-      <c r="D54" s="98"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
       <c r="E54" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="87" t="s">
+      <c r="G54" s="82" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4005,14 +4070,14 @@
       <c r="B55" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="98"/>
-      <c r="D55" s="98"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
       <c r="E55" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="86" t="s">
+      <c r="G55" s="81" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4020,74 +4085,74 @@
       <c r="B56" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="98"/>
-      <c r="D56" s="98"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
       <c r="E56" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F56" s="2"/>
-      <c r="G56" s="87" t="s">
+      <c r="G56" s="82" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="98"/>
-      <c r="D57" s="98"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
       <c r="E57" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F57" s="2"/>
-      <c r="G57" s="86" t="s">
+      <c r="G57" s="81" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="59" t="s">
+      <c r="B58" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="98"/>
-      <c r="D58" s="98"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
       <c r="E58" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F58" s="2"/>
-      <c r="G58" s="87" t="s">
+      <c r="G58" s="82" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="98"/>
-      <c r="D59" s="98"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="92"/>
       <c r="E59" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="86" t="s">
+      <c r="G59" s="81" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="92"/>
       <c r="E60" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="87" t="s">
+      <c r="G60" s="82" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4095,14 +4160,14 @@
       <c r="B61" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="98"/>
-      <c r="D61" s="98"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
       <c r="E61" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="87" t="s">
+      <c r="G61" s="82" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4110,44 +4175,44 @@
       <c r="B62" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="98"/>
-      <c r="D62" s="98"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
       <c r="E62" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F62" s="2"/>
-      <c r="G62" s="87" t="s">
+      <c r="G62" s="82" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="98"/>
-      <c r="D63" s="98"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
       <c r="E63" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="87" t="s">
+      <c r="G63" s="82" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="98"/>
-      <c r="D64" s="98"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
       <c r="E64" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F64" s="2"/>
-      <c r="G64" s="87" t="s">
+      <c r="G64" s="82" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4155,14 +4220,14 @@
       <c r="B65" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="98"/>
-      <c r="D65" s="98"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
       <c r="E65" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="87" t="s">
+      <c r="G65" s="82" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4170,29 +4235,29 @@
       <c r="B66" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="98"/>
-      <c r="D66" s="98"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
       <c r="E66" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="87" t="s">
+      <c r="G66" s="82" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="C67" s="98"/>
-      <c r="D67" s="98"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
       <c r="E67" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F67" s="2"/>
-      <c r="G67" s="87" t="s">
+      <c r="G67" s="82" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4200,59 +4265,59 @@
       <c r="B68" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C68" s="98"/>
-      <c r="D68" s="98"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
       <c r="E68" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="87" t="s">
+      <c r="G68" s="82" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="C69" s="98"/>
-      <c r="D69" s="98"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="92"/>
       <c r="E69" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F69" s="2"/>
-      <c r="G69" s="87" t="s">
+      <c r="G69" s="82" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="98"/>
-      <c r="D70" s="98"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="92"/>
       <c r="E70" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F70" s="2"/>
-      <c r="G70" s="87" t="s">
+      <c r="G70" s="82" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="60" t="s">
+      <c r="B71" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="98"/>
-      <c r="D71" s="98"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92"/>
       <c r="E71" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F71" s="2"/>
-      <c r="G71" s="89" t="s">
+      <c r="G71" s="84" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4273,346 +4338,346 @@
         <f>SUM(E23:E71)</f>
         <v>0</v>
       </c>
-      <c r="G72" s="86"/>
+      <c r="G72" s="81"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B73" s="10"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
-      <c r="G73" s="86"/>
+      <c r="G73" s="81"/>
     </row>
     <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="70" t="s">
+      <c r="A74" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="B74" s="62"/>
+      <c r="B74" s="58"/>
       <c r="E74" s="21"/>
-      <c r="G74" s="86"/>
+      <c r="G74" s="81"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B75" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="98"/>
-      <c r="D75" s="98"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="92"/>
       <c r="E75" s="9" t="str">
         <f>IF(D75="","",C75-D75)</f>
         <v/>
       </c>
       <c r="F75" s="2"/>
-      <c r="G75" s="87" t="s">
+      <c r="G75" s="82" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="59" t="s">
+      <c r="B76" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="98"/>
-      <c r="D76" s="98"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="92"/>
       <c r="E76" s="9" t="str">
         <f t="shared" ref="E76:E101" si="1">IF(D76="","",C76-D76)</f>
         <v/>
       </c>
       <c r="F76" s="2"/>
-      <c r="G76" s="87" t="s">
+      <c r="G76" s="82" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="59" t="s">
+      <c r="B77" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C77" s="98"/>
-      <c r="D77" s="98"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
       <c r="E77" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F77" s="2"/>
-      <c r="G77" s="87" t="s">
+      <c r="G77" s="82" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="C78" s="98"/>
-      <c r="D78" s="98"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
       <c r="E78" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F78" s="2"/>
-      <c r="G78" s="87" t="s">
+      <c r="G78" s="82" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B79" s="59" t="s">
+      <c r="B79" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C79" s="98"/>
-      <c r="D79" s="98"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
       <c r="E79" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F79" s="2"/>
-      <c r="G79" s="87" t="s">
+      <c r="G79" s="82" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B80" s="59" t="s">
+      <c r="B80" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C80" s="98"/>
-      <c r="D80" s="98"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
       <c r="E80" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F80" s="2"/>
-      <c r="G80" s="87" t="s">
+      <c r="G80" s="82" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B81" s="59" t="s">
+      <c r="B81" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C81" s="98"/>
-      <c r="D81" s="98"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="92"/>
       <c r="E81" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F81" s="2"/>
-      <c r="G81" s="87" t="s">
+      <c r="G81" s="82" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B82" s="59" t="s">
+      <c r="B82" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C82" s="98"/>
-      <c r="D82" s="98"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="92"/>
       <c r="E82" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F82" s="2"/>
-      <c r="G82" s="87" t="s">
+      <c r="G82" s="82" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83" s="59" t="s">
+      <c r="B83" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="98"/>
-      <c r="D83" s="98"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="92"/>
       <c r="E83" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F83" s="2"/>
-      <c r="G83" s="87" t="s">
+      <c r="G83" s="82" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B84" s="59" t="s">
+      <c r="B84" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C84" s="98"/>
-      <c r="D84" s="98"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="92"/>
       <c r="E84" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F84" s="2"/>
-      <c r="G84" s="87" t="s">
+      <c r="G84" s="82" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B85" s="59" t="s">
+      <c r="B85" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C85" s="98"/>
-      <c r="D85" s="98"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="92"/>
       <c r="E85" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F85" s="2"/>
-      <c r="G85" s="87" t="s">
+      <c r="G85" s="82" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B86" s="59" t="s">
+      <c r="B86" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="98"/>
-      <c r="D86" s="98"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="92"/>
       <c r="E86" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F86" s="2"/>
-      <c r="G86" s="87" t="s">
+      <c r="G86" s="82" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B87" s="59" t="s">
+      <c r="B87" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C87" s="98"/>
-      <c r="D87" s="98"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="92"/>
       <c r="E87" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F87" s="2"/>
-      <c r="G87" s="87" t="s">
+      <c r="G87" s="82" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B88" s="59" t="s">
+      <c r="B88" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C88" s="98"/>
-      <c r="D88" s="98"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="92"/>
       <c r="E88" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F88" s="2"/>
-      <c r="G88" s="87" t="s">
+      <c r="G88" s="82" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B89" s="59" t="s">
+      <c r="B89" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="98"/>
-      <c r="D89" s="98"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="92"/>
       <c r="E89" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F89" s="2"/>
-      <c r="G89" s="87" t="s">
+      <c r="G89" s="82" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B90" s="59" t="s">
+      <c r="B90" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C90" s="98"/>
-      <c r="D90" s="98"/>
+      <c r="C90" s="92"/>
+      <c r="D90" s="92"/>
       <c r="E90" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F90" s="2"/>
-      <c r="G90" s="87" t="s">
+      <c r="G90" s="82" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C91" s="98"/>
-      <c r="D91" s="98"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="92"/>
       <c r="E91" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F91" s="2"/>
-      <c r="G91" s="87" t="s">
+      <c r="G91" s="82" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B92" s="59" t="s">
+      <c r="B92" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="C92" s="98"/>
-      <c r="D92" s="98"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="92"/>
       <c r="E92" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F92" s="2"/>
-      <c r="G92" s="87" t="s">
+      <c r="G92" s="82" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B93" s="59" t="s">
+      <c r="B93" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="C93" s="98"/>
-      <c r="D93" s="98"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="92"/>
       <c r="E93" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F93" s="2"/>
-      <c r="G93" s="87" t="s">
+      <c r="G93" s="82" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B94" s="59" t="s">
+      <c r="B94" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="98"/>
-      <c r="D94" s="98"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="92"/>
       <c r="E94" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F94" s="2"/>
-      <c r="G94" s="87" t="s">
+      <c r="G94" s="82" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B95" s="59" t="s">
+      <c r="B95" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C95" s="98"/>
-      <c r="D95" s="98"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="92"/>
       <c r="E95" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F95" s="2"/>
-      <c r="G95" s="87" t="s">
+      <c r="G95" s="82" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B96" s="59" t="s">
+      <c r="B96" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C96" s="98">
+      <c r="C96" s="92">
         <v>63</v>
       </c>
-      <c r="D96" s="98">
+      <c r="D96" s="92">
         <v>65</v>
       </c>
       <c r="E96" s="9">
@@ -4620,37 +4685,37 @@
         <v>-2</v>
       </c>
       <c r="F96" s="2"/>
-      <c r="G96" s="87" t="s">
+      <c r="G96" s="82" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B97" s="59" t="s">
+      <c r="B97" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C97" s="98"/>
-      <c r="D97" s="98"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="92"/>
       <c r="E97" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F97" s="2"/>
-      <c r="G97" s="87" t="s">
+      <c r="G97" s="82" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B98" s="59" t="s">
+      <c r="B98" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C98" s="98"/>
-      <c r="D98" s="98"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="92"/>
       <c r="E98" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F98" s="2"/>
-      <c r="G98" s="87" t="s">
+      <c r="G98" s="82" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4658,10 +4723,10 @@
       <c r="B99" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C99" s="98">
+      <c r="C99" s="92">
         <v>24</v>
       </c>
-      <c r="D99" s="98">
+      <c r="D99" s="92">
         <v>24</v>
       </c>
       <c r="E99" s="9">
@@ -4669,38 +4734,38 @@
         <v>0</v>
       </c>
       <c r="F99" s="2"/>
-      <c r="G99" s="87" t="s">
+      <c r="G99" s="82" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B100" s="59" t="s">
+      <c r="B100" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C100" s="98"/>
-      <c r="D100" s="98"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="92"/>
       <c r="E100" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F100" s="2"/>
-      <c r="G100" s="87" t="s">
+      <c r="G100" s="82" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="16"/>
-      <c r="B101" s="60" t="s">
+      <c r="B101" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C101" s="98"/>
-      <c r="D101" s="98"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="92"/>
       <c r="E101" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F101" s="2"/>
-      <c r="G101" s="89" t="s">
+      <c r="G101" s="84" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4721,18 +4786,18 @@
         <f>SUM(E74:E101)</f>
         <v>-2</v>
       </c>
-      <c r="G102" s="86"/>
+      <c r="G102" s="81"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B103" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C103" s="98">
+      <c r="C103" s="92">
         <v>6</v>
       </c>
       <c r="D103" s="25"/>
       <c r="E103" s="25"/>
-      <c r="G103" s="86" t="s">
+      <c r="G103" s="81" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4753,7 +4818,7 @@
         <f>E102*$C$103</f>
         <v>-12</v>
       </c>
-      <c r="G104" s="86"/>
+      <c r="G104" s="81"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="16"/>
@@ -4761,13 +4826,13 @@
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
-      <c r="G105" s="86"/>
+      <c r="G105" s="81"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="63" t="s">
+      <c r="A106" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="B106" s="63"/>
+      <c r="B106" s="59"/>
       <c r="C106" s="18">
         <f>C72+C104</f>
         <v>522</v>
@@ -4780,7 +4845,7 @@
         <f>E72+E104</f>
         <v>-12</v>
       </c>
-      <c r="G106" s="86"/>
+      <c r="G106" s="81"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="15"/>
@@ -4788,13 +4853,13 @@
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="17"/>
-      <c r="G107" s="86"/>
+      <c r="G107" s="81"/>
     </row>
     <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="63" t="s">
+      <c r="A108" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B108" s="63"/>
+      <c r="B108" s="59"/>
       <c r="C108" s="28">
         <f>C20-C106</f>
         <v>14478</v>
@@ -4807,7 +4872,7 @@
         <f>D108-C108</f>
         <v>-512</v>
       </c>
-      <c r="G108" s="86"/>
+      <c r="G108" s="81"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="16"/>
@@ -4815,7 +4880,7 @@
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
-      <c r="G109" s="86"/>
+      <c r="G109" s="81"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E110" s="16"/>
@@ -4887,174 +4952,174 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="66.5" style="81" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="77" customWidth="1"/>
+    <col min="2" max="2" width="66.5" style="77" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73" t="s">
+      <c r="A1" s="68"/>
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74"/>
+      <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="72"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="74"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="70"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="72"/>
-      <c r="B3" s="74" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="70"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="72"/>
-      <c r="B4" s="100" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="94" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="74"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="70"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="77" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="74"/>
+      <c r="C6" s="70"/>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="72"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="70"/>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="76" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="70"/>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="72"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="74"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="70"/>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="72"/>
-      <c r="B10" s="76" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="70"/>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="74"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="70"/>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="72"/>
-      <c r="B12" s="76" t="s">
+      <c r="A12" s="68"/>
+      <c r="B12" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="70"/>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="72"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="74"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="70"/>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="72"/>
-      <c r="B14" s="78" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="70"/>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
-      <c r="B15" s="76" t="s">
+      <c r="A15" s="68"/>
+      <c r="B15" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="70"/>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="72"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="74"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="70"/>
     </row>
     <row r="17" spans="1:3" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="72"/>
-      <c r="B17" s="80" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="70"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="74"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="70"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="74"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="70"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="74"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="70"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="74"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="70"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="74"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="70"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="74"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="70"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="74"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="70"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="74"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="70"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="74"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="70"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="74"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="70"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="74"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="70"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="74"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="70"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/business-startup-costs.xlsx
+++ b/business-startup-costs.xlsx
@@ -1519,8 +1519,67 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="9"/>
+        <name val="Arial"/>
+        <family val="1"/>
+        <scheme val="major"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="9"/>
+        <name val="Arial"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1586,67 +1645,8 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <name val="Arial"/>
-        <family val="1"/>
-        <scheme val="major"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <name val="Arial"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1849,9 +1849,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A2:C48" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="11" dataDxfId="10"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="13"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="12"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="12" dataDxfId="11"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="10"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2148,7 +2148,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D30"/>
+      <selection activeCell="A2" sqref="A2:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2288,7 +2288,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="89">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="C11" s="38">
         <f>SUM(C8:C10)</f>
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -2399,7 +2399,7 @@
       <c r="B16" s="64"/>
       <c r="C16" s="41">
         <f>C7+C11+C15</f>
-        <v>105000</v>
+        <v>100000</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -2558,7 +2558,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="89">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>70</v>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="C31" s="38">
         <f>SUM(C18:C30)</f>
-        <v>25815</v>
+        <v>27815</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -2813,7 +2813,7 @@
         <v>139</v>
       </c>
       <c r="C45" s="89">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>216</v>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="C46" s="38">
         <f>C44*$C$45</f>
-        <v>78509.799999999988</v>
+        <v>62807.839999999997</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -2849,7 +2849,7 @@
       <c r="B47" s="64"/>
       <c r="C47" s="41">
         <f>C31+C46</f>
-        <v>104324.79999999999</v>
+        <v>90622.84</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
@@ -2866,7 +2866,7 @@
       <c r="B48" s="64"/>
       <c r="C48" s="46">
         <f>C16-C47</f>
-        <v>675.20000000001164</v>
+        <v>9377.1600000000035</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48"/>
@@ -2879,7 +2879,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E16 E45:E47">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
       <formula>E3&lt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/business-startup-costs.xlsx
+++ b/business-startup-costs.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="221">
   <si>
     <t>[Business Name]</t>
   </si>
@@ -807,9 +807,6 @@
     <t>←Social media creation and updates</t>
   </si>
   <si>
-    <t>← Water and telephone</t>
-  </si>
-  <si>
     <t xml:space="preserve">Loan Interest </t>
   </si>
   <si>
@@ -838,6 +835,12 @@
   </si>
   <si>
     <t>← Computers, monitors, software licenses.</t>
+  </si>
+  <si>
+    <t>←telephone</t>
+  </si>
+  <si>
+    <t>Legal</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1229,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -1465,6 +1468,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1472,6 +1478,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1642,11 +1653,6 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1847,11 +1853,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A2:C48" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A2:C47" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="12" dataDxfId="11"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="10"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="9"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="11"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2145,10 +2151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2287,9 +2293,7 @@
       <c r="B9" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="89">
-        <v>10000</v>
-      </c>
+      <c r="C9" s="89"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" s="31"/>
@@ -2319,7 +2323,7 @@
       </c>
       <c r="C11" s="38">
         <f>SUM(C8:C10)</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -2349,7 +2353,7 @@
         <v>196</v>
       </c>
       <c r="C13" s="89">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -2365,7 +2369,7 @@
         <v>199</v>
       </c>
       <c r="C14" s="89">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -2382,7 +2386,7 @@
       </c>
       <c r="C15" s="38">
         <f>SUM(C12:C14)</f>
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -2399,7 +2403,7 @@
       <c r="B16" s="64"/>
       <c r="C16" s="41">
         <f>C7+C11+C15</f>
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -2438,7 +2442,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="89">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>205</v>
@@ -2468,7 +2472,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="89">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>34</v>
@@ -2486,7 +2490,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
@@ -2498,10 +2502,10 @@
         <v>45</v>
       </c>
       <c r="C23" s="89">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
@@ -2528,10 +2532,10 @@
         <v>59</v>
       </c>
       <c r="C25" s="89">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
@@ -2558,7 +2562,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="89">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>70</v>
@@ -2597,71 +2601,69 @@
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="48" t="s">
-        <v>214</v>
+    <row r="30" spans="1:7" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="100"/>
+      <c r="B30" s="47" t="s">
+        <v>220</v>
       </c>
       <c r="C30" s="89">
-        <v>4250</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="E30" s="31"/>
+        <v>1000</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30"/>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
     </row>
-    <row r="31" spans="1:7" s="67" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="C31" s="38">
-        <f>SUM(C18:C30)</f>
-        <v>27815</v>
-      </c>
-      <c r="D31" s="31"/>
+    <row r="31" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="89">
+        <v>4500</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>214</v>
+      </c>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
     </row>
     <row r="32" spans="1:7" s="67" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="99"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="38">
+        <f>SUM(C18:C31)</f>
+        <v>36565</v>
+      </c>
+      <c r="D32" s="31"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
     </row>
-    <row r="33" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="89">
-        <v>900</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>93</v>
-      </c>
+    <row r="33" spans="1:10" s="67" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="63"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="99"/>
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
     </row>
     <row r="34" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
-      <c r="B34" s="47" t="s">
-        <v>94</v>
+      <c r="B34" s="42" t="s">
+        <v>92</v>
       </c>
       <c r="C34" s="89">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>207</v>
+        <v>93</v>
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
@@ -2670,13 +2672,13 @@
     <row r="35" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="47" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="C35" s="89">
-        <v>2749.98</v>
+        <v>300</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E35" s="31"/>
       <c r="F35" s="31"/>
@@ -2685,13 +2687,13 @@
     <row r="36" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="47" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="C36" s="89">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E36" s="31"/>
       <c r="F36" s="31"/>
@@ -2700,13 +2702,13 @@
     <row r="37" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="47" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="C37" s="89">
-        <v>366</v>
+        <v>100</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
@@ -2715,13 +2717,13 @@
     <row r="38" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="47" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="C38" s="89">
-        <v>3000</v>
+        <v>366</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
@@ -2730,13 +2732,13 @@
     <row r="39" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="47" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C39" s="89">
-        <v>250</v>
+        <v>3000</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
@@ -2745,13 +2747,13 @@
     <row r="40" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="47" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C40" s="89">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="31"/>
@@ -2759,14 +2761,14 @@
     </row>
     <row r="41" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
-      <c r="B41" s="42" t="s">
-        <v>136</v>
+      <c r="B41" s="47" t="s">
+        <v>134</v>
       </c>
       <c r="C41" s="89">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
@@ -2774,112 +2776,105 @@
     </row>
     <row r="42" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
-      <c r="B42" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="31"/>
+      <c r="B42" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="89">
+        <v>250</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>137</v>
+      </c>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
     </row>
-    <row r="43" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="40"/>
-      <c r="B43" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="89"/>
-      <c r="D43"/>
+      <c r="B43" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="38">
+        <f>SUM(C33:C42)</f>
+        <v>9111</v>
+      </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
     </row>
-    <row r="44" spans="1:10" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
-      <c r="B44" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="38">
-        <f>SUM(C32:C43)</f>
-        <v>7850.98</v>
-      </c>
-      <c r="E44" s="31"/>
+    <row r="44" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="33"/>
+      <c r="B44" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="89">
+        <v>8</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E44"/>
       <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-    </row>
-    <row r="45" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
-      <c r="B45" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="89">
-        <v>8</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>216</v>
-      </c>
+      <c r="G44" s="78"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+    </row>
+    <row r="45" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="40"/>
+      <c r="B45" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="38">
+        <f>C43*$C$44</f>
+        <v>72888</v>
+      </c>
+      <c r="D45"/>
       <c r="E45"/>
-      <c r="F45" s="31"/>
+      <c r="F45" s="95"/>
       <c r="G45" s="78"/>
       <c r="H45" s="31"/>
       <c r="I45" s="31"/>
       <c r="J45" s="31"/>
     </row>
-    <row r="46" spans="1:10" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="40"/>
-      <c r="B46" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="38">
-        <f>C44*$C$45</f>
-        <v>62807.839999999997</v>
+    <row r="46" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="64"/>
+      <c r="C46" s="41">
+        <f>C32+C45</f>
+        <v>109453</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
-      <c r="F46" s="95"/>
+      <c r="F46" s="31"/>
       <c r="G46" s="78"/>
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
       <c r="J46" s="31"/>
     </row>
-    <row r="47" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A47" s="64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B47" s="64"/>
-      <c r="C47" s="41">
-        <f>C31+C46</f>
-        <v>90622.84</v>
-      </c>
-      <c r="D47"/>
+      <c r="C47" s="46">
+        <f>C16-C46</f>
+        <v>547</v>
+      </c>
+      <c r="D47" s="16"/>
       <c r="E47"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="46">
-        <f>C16-C47</f>
-        <v>9377.1600000000035</v>
-      </c>
-      <c r="D48" s="16"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E48"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E49"/>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E50" s="16"/>
+      <c r="E49" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:E16 E45:E47">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="E3:E16 E44:E46">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>E3&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2896,8 +2891,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" topLeftCell="D55" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/business-startup-costs.xlsx
+++ b/business-startup-costs.xlsx
@@ -1525,11 +1525,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1653,6 +1648,11 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1855,9 +1855,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A2:C47" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="13" dataDxfId="12"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="11"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="10"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="12" dataDxfId="11"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="10"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2154,7 +2154,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2780,7 +2780,7 @@
         <v>136</v>
       </c>
       <c r="C42" s="89">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>137</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C43" s="38">
         <f>SUM(C33:C42)</f>
-        <v>9111</v>
+        <v>9011</v>
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="C45" s="38">
         <f>C43*$C$44</f>
-        <v>72888</v>
+        <v>72088</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -2844,7 +2844,7 @@
       <c r="B46" s="64"/>
       <c r="C46" s="41">
         <f>C32+C45</f>
-        <v>109453</v>
+        <v>108653</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -2861,7 +2861,7 @@
       <c r="B47" s="64"/>
       <c r="C47" s="46">
         <f>C16-C46</f>
-        <v>547</v>
+        <v>1347</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47"/>
@@ -2874,7 +2874,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E16 E44:E46">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
       <formula>E3&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
